--- a/va_facility_data_2025-02-20/Bloomington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bloomington%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bloomington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bloomington%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1e894ba079434a27b030b02b08a9f79b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R800ade0a59ae4176ad1bbf284953d443"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R95b8d441a8344151961f01895b44610a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R525a25fd9a904558995866c84d95ff27"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra75ecb1d04c3465e9aebe7ac2708a1da"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2d00b1b6a2854559a14b18b3a48fa901"/>
   </x:sheets>
 </x:workbook>
 </file>
